--- a/orders/794329884.xlsx
+++ b/orders/794329884.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EA6276-07D8-4794-9F7D-37EFF566C6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C56D0D-AF85-4A9A-8E74-3560091F17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Серьги для девочек</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Количество необходимых ПВЗ</t>
-  </si>
-  <si>
-    <t>Order ID</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A3:E4"/>
+      <selection activeCell="E1" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -454,9 +451,6 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
@@ -470,9 +464,6 @@
       </c>
       <c r="D2">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>123</v>
       </c>
       <c r="F2" s="1"/>
     </row>
